--- a/organicka_chemia/zasaditost_aminov/spracovanie_dat.xlsx
+++ b/organicka_chemia/zasaditost_aminov/spracovanie_dat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miro Ilias\Desktop\git-projects\stredoskolska-odborna-cinnost-2024\organicka_chemia\zasaditost_aminov\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611734E2-CBF9-4497-A86D-326F5CD7E13D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33FA0589-4F71-4C00-8300-02159D3AAF15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{225A8615-AD40-4AA7-B147-EA9EF665CB5E}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="16200" windowHeight="9360" xr2:uid="{225A8615-AD40-4AA7-B147-EA9EF665CB5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hárok1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>amonium</t>
   </si>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t>PA_G [kJ/mol]</t>
+  </si>
+  <si>
+    <t>PA_H [kJ/mol]</t>
+  </si>
+  <si>
+    <t>Molekula</t>
   </si>
 </sst>
 </file>
@@ -87,7 +93,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -114,7 +120,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -122,20 +128,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -472,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F70910-830D-45C2-8968-BAF4B41A70DB}">
-  <dimension ref="B3:F16"/>
+  <dimension ref="B3:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,23 +504,30 @@
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -519,8 +545,12 @@
         <f>E5-E4-E13</f>
         <v>-611.43886936799993</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="5">
+        <f>C5-C4-C13</f>
+        <v>-645.68124</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -536,10 +566,10 @@
       </c>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -557,8 +587,12 @@
         <f>E8-E7-E13</f>
         <v>-586.36851391519986</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="5">
+        <f>C8-C7-C13</f>
+        <v>-620.56150999999988</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
@@ -574,11 +608,11 @@
       </c>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
@@ -596,8 +630,12 @@
         <f>E11-E10-E13</f>
         <v>-601.94235295999988</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="5">
+        <f>C11-C10-C13</f>
+        <v>-628.86768999999993</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
@@ -612,10 +650,10 @@
         <v>645.5083677696</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>6</v>
       </c>
@@ -630,7 +668,7 @@
         <v>1253.6656060159999</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
@@ -638,7 +676,7 @@
         <v>4.1840000000000002E-3</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
